--- a/experiment_results/实验结果.xlsx
+++ b/experiment_results/实验结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>2025_11_23</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Oxford 102 Flowers</t>
   </si>
   <si>
+    <t>环境：V100 8 * 32G</t>
+  </si>
+  <si>
     <t>Resnet34(不加载预训练权重)</t>
   </si>
   <si>
@@ -58,19 +61,40 @@
     <t>训练集 + 验证集合并成一个，进行5折交叉验证，使用每一折最好的模型进行测试</t>
   </si>
   <si>
+    <t>训练总时间：16.0h 44.0m 30.326989889144897s</t>
+  </si>
+  <si>
     <t>Mean</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>训练总时间：16.0h 44.0m 30.326989889144897s</t>
-  </si>
-  <si>
     <t>Std</t>
   </si>
   <si>
     <t>使用每一折最好的模型进行测试</t>
+  </si>
+  <si>
+    <t>2025_11_25 - 2025_12_03</t>
+  </si>
+  <si>
+    <t>CIFAR10</t>
+  </si>
+  <si>
+    <t>训练集 + 验证集合并成一个，进行5折交叉验证</t>
+  </si>
+  <si>
+    <t>训练总时间：178.0h 24.0m 3.9902656078338623s</t>
+  </si>
+  <si>
+    <t>2025_11_26 - 2025_12_03</t>
+  </si>
+  <si>
+    <t>环境：3090Ti 2 * 24G</t>
+  </si>
+  <si>
+    <t>训练总时间：156.0h 44.0m 20.54083776473999s</t>
   </si>
 </sst>
 </file>
@@ -99,13 +123,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -113,10 +130,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,11 +144,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,16 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,9 +182,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +236,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,14 +265,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,181 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +475,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +510,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,40 +548,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,150 +590,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -769,6 +800,8 @@
   <colors>
     <mruColors>
       <color rgb="00C6EFCE"/>
+      <color rgb="0028EE52"/>
+      <color rgb="00ADF8BF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1037,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1067,44 +1100,50 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="2" t="s">
-        <v>2</v>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1138,7 +1177,7 @@
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7">
         <v>2</v>
       </c>
@@ -1171,7 +1210,7 @@
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8">
         <v>3</v>
       </c>
@@ -1204,7 +1243,7 @@
       </c>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9">
         <v>4</v>
       </c>
@@ -1270,12 +1309,14 @@
       </c>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ref="F11:M11" si="0">AVERAGE(F6:F10)</f>
@@ -1311,14 +1352,12 @@
       </c>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ref="F12:M12" si="1">STDEVP(F6:F10)</f>
@@ -1358,31 +1397,31 @@
     </row>
     <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="5:13">
@@ -1473,8 +1512,8 @@
       </c>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="4" t="s">
-        <v>18</v>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1535,7 +1574,7 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ref="F21:M21" si="2">AVERAGE(F16:F20)</f>
@@ -1572,7 +1611,7 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:M22" si="3">STDEVP(F16:F20)</f>
@@ -1607,11 +1646,637 @@
         <v>0.000614491659829486</v>
       </c>
     </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="3"/>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1870</v>
+      </c>
+      <c r="F30">
+        <v>0.9592</v>
+      </c>
+      <c r="G30">
+        <v>0.9594</v>
+      </c>
+      <c r="H30">
+        <v>0.9589</v>
+      </c>
+      <c r="I30">
+        <v>0.9955</v>
+      </c>
+      <c r="J30">
+        <v>0.959</v>
+      </c>
+      <c r="K30">
+        <v>0.9546</v>
+      </c>
+      <c r="L30">
+        <v>0.9772</v>
+      </c>
+      <c r="M30">
+        <v>0.9942</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>610</v>
+      </c>
+      <c r="F31">
+        <v>0.9454</v>
+      </c>
+      <c r="G31">
+        <v>0.9461</v>
+      </c>
+      <c r="H31">
+        <v>0.9454</v>
+      </c>
+      <c r="I31">
+        <v>0.9939</v>
+      </c>
+      <c r="J31">
+        <v>0.9455</v>
+      </c>
+      <c r="K31">
+        <v>0.9394</v>
+      </c>
+      <c r="L31">
+        <v>0.9697</v>
+      </c>
+      <c r="M31">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="4"/>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1956</v>
+      </c>
+      <c r="F32">
+        <v>0.9592</v>
+      </c>
+      <c r="G32">
+        <v>0.9599</v>
+      </c>
+      <c r="H32">
+        <v>0.9595</v>
+      </c>
+      <c r="I32">
+        <v>0.9955</v>
+      </c>
+      <c r="J32">
+        <v>0.9596</v>
+      </c>
+      <c r="K32">
+        <v>0.9546</v>
+      </c>
+      <c r="L32">
+        <v>0.9775</v>
+      </c>
+      <c r="M32">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="3"/>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>933</v>
+      </c>
+      <c r="F33">
+        <v>0.9486</v>
+      </c>
+      <c r="G33">
+        <v>0.9492</v>
+      </c>
+      <c r="H33">
+        <v>0.9487</v>
+      </c>
+      <c r="I33">
+        <v>0.9943</v>
+      </c>
+      <c r="J33">
+        <v>0.9488</v>
+      </c>
+      <c r="K33">
+        <v>0.9429</v>
+      </c>
+      <c r="L33">
+        <v>0.9715</v>
+      </c>
+      <c r="M33">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="3"/>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>846</v>
+      </c>
+      <c r="F34">
+        <v>0.9481</v>
+      </c>
+      <c r="G34">
+        <v>0.9486</v>
+      </c>
+      <c r="H34">
+        <v>0.9481</v>
+      </c>
+      <c r="I34">
+        <v>0.9942</v>
+      </c>
+      <c r="J34">
+        <v>0.9482</v>
+      </c>
+      <c r="K34">
+        <v>0.9423</v>
+      </c>
+      <c r="L34">
+        <v>0.9712</v>
+      </c>
+      <c r="M34">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" ref="F35:M35" si="4">AVERAGE(F30:F34)</f>
+        <v>0.9521</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95264</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95212</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99468</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95222</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.94676</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97342</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.9944</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:M36" si="5">STDEVP(F30:F34)</f>
+        <v>0.0058984743790238</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.00581948451325371</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.00588978777206784</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.000682348884369311</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.00588978777206784</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.00650986943033422</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.00326765971300563</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="5"/>
+        <v>0.000846167832052238</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="3"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>850</v>
+      </c>
+      <c r="F44">
+        <v>0.9461</v>
+      </c>
+      <c r="G44">
+        <v>0.9464</v>
+      </c>
+      <c r="H44">
+        <v>0.9456</v>
+      </c>
+      <c r="I44">
+        <v>0.994</v>
+      </c>
+      <c r="J44">
+        <v>0.9459</v>
+      </c>
+      <c r="K44">
+        <v>0.9401</v>
+      </c>
+      <c r="L44">
+        <v>0.9698</v>
+      </c>
+      <c r="M44">
+        <v>0.9938</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>503</v>
+      </c>
+      <c r="F45">
+        <v>0.9461</v>
+      </c>
+      <c r="G45">
+        <v>0.9467</v>
+      </c>
+      <c r="H45">
+        <v>0.946</v>
+      </c>
+      <c r="I45">
+        <v>0.994</v>
+      </c>
+      <c r="J45">
+        <v>0.9462</v>
+      </c>
+      <c r="K45">
+        <v>0.9401</v>
+      </c>
+      <c r="L45">
+        <v>0.97</v>
+      </c>
+      <c r="M45">
+        <v>0.9942</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="4"/>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>1741</v>
+      </c>
+      <c r="F46">
+        <v>0.9579</v>
+      </c>
+      <c r="G46">
+        <v>0.9587</v>
+      </c>
+      <c r="H46">
+        <v>0.9584</v>
+      </c>
+      <c r="I46">
+        <v>0.9953</v>
+      </c>
+      <c r="J46">
+        <v>0.9585</v>
+      </c>
+      <c r="K46">
+        <v>0.9532</v>
+      </c>
+      <c r="L46">
+        <v>0.9768</v>
+      </c>
+      <c r="M46">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="3"/>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1816</v>
+      </c>
+      <c r="F47">
+        <v>0.9607</v>
+      </c>
+      <c r="G47">
+        <v>0.9614</v>
+      </c>
+      <c r="H47">
+        <v>0.9607</v>
+      </c>
+      <c r="I47">
+        <v>0.9956</v>
+      </c>
+      <c r="J47">
+        <v>0.961</v>
+      </c>
+      <c r="K47">
+        <v>0.9563</v>
+      </c>
+      <c r="L47">
+        <v>0.9782</v>
+      </c>
+      <c r="M47">
+        <v>0.9956</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="3"/>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>561</v>
+      </c>
+      <c r="F48">
+        <v>0.9438</v>
+      </c>
+      <c r="G48">
+        <v>0.9443</v>
+      </c>
+      <c r="H48">
+        <v>0.9436</v>
+      </c>
+      <c r="I48">
+        <v>0.9938</v>
+      </c>
+      <c r="J48">
+        <v>0.9438</v>
+      </c>
+      <c r="K48">
+        <v>0.9376</v>
+      </c>
+      <c r="L48">
+        <v>0.9687</v>
+      </c>
+      <c r="M48">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" ref="F49:M49" si="6">AVERAGE(F44:F48)</f>
+        <v>0.95092</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.9515</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.95086</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.99454</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.95108</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.94546</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.9727</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="6"/>
+        <v>0.99472</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="10"/>
+      <c r="D50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" ref="F50:M50" si="7">STDEVP(F44:F48)</f>
+        <v>0.00695022301800452</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00708152525943388</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00717874640867054</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.000752595508889073</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00717088557989876</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00770262292988565</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00396887893491348</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="7"/>
+        <v>0.00064000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
